--- a/data/Analysis/分析组-9-2.xlsx
+++ b/data/Analysis/分析组-9-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A37804-AA9F-482E-887F-634FEB7ED1DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F6158-6858-4C45-A633-AA40D2C8A8E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="52">
   <si>
     <t>组别</t>
   </si>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -375,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XET19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17770,25 +17773,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACDF09C-DE6B-4EAA-BAE4-95522CBFC57E}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
@@ -17796,77 +17799,83 @@
         <v>29</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
         <v>4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
         <v>3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -17874,76 +17883,85 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>3</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
       </c>
       <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>2</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="12">
@@ -17961,76 +17979,85 @@
       <c r="I6" s="12">
         <v>0</v>
       </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11">
         <v>0</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
       <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
         <v>2</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
       </c>
       <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
       </c>
       <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11">
         <v>0</v>
       </c>
       <c r="E9" s="12">
@@ -18048,18 +18075,21 @@
       <c r="I9" s="12">
         <v>0</v>
       </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" s="12">
@@ -18075,30 +18105,33 @@
         <v>0</v>
       </c>
       <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11">
         <v>0</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
         <v>3</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -18106,18 +18139,21 @@
       <c r="I11" s="12">
         <v>0</v>
       </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="12">
@@ -18135,28 +18171,31 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
       </c>
       <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <v>4</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
       </c>
       <c r="H13" s="12">
         <v>0</v>
@@ -18164,28 +18203,31 @@
       <c r="I13" s="12">
         <v>0</v>
       </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
       </c>
       <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <v>3</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -18193,28 +18235,31 @@
       <c r="I14" s="12">
         <v>0</v>
       </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
       </c>
       <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
         <v>2</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
@@ -18222,57 +18267,63 @@
       <c r="I15" s="12">
         <v>0</v>
       </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
       </c>
       <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
         <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
       </c>
       <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
       </c>
       <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
         <v>5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
@@ -18280,18 +18331,21 @@
       <c r="I17" s="12">
         <v>0</v>
       </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="12">
@@ -18309,18 +18363,21 @@
       <c r="I18" s="12">
         <v>0</v>
       </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="12">
@@ -18335,11 +18392,15 @@
       <c r="H19" s="12">
         <v>0</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -18347,11 +18408,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF043EC-E772-4B5E-B68C-2CE759AB5039}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
